--- a/data/construction.xlsx
+++ b/data/construction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\Desktop\앱개발\자격증공부앱\github_setup\safety-exam-ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782B73C-151C-4B76-BA28-6392324D7C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD04A9-4125-44F5-BCB9-D2078C1430C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1BAAAA1-29AD-4570-96FD-90741EBB30E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="1820">
   <si>
     <t>Question(</t>
   </si>
@@ -5502,10 +5502,6 @@
   </si>
   <si>
     <t xml:space="preserve">    options: ["하중 아래 통과", "신호수 확인", "작업 반경 통제", "안전모 착용"],</t>
-  </si>
-  <si>
-    <t>끝.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5889,10 +5885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E40A621-E630-4F18-A010-C42434C587B1}">
-  <dimension ref="A1:A6007"/>
+  <dimension ref="A1:A6005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5988" workbookViewId="0">
-      <selection activeCell="A6008" sqref="A6008"/>
+      <selection activeCell="A6007" sqref="A6007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32930,11 +32926,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6007" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6007" t="s">
-        <v>1820</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/construction.xlsx
+++ b/data/construction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flutter_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B895BF3-4039-4C41-A5CB-842D93A66645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9EDAEF-9CCE-4351-9D46-C7BA93C1617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="38616" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8152,7 +8152,7 @@
     <t>안전모 착용</t>
   </si>
   <si>
-    <t>벌칙 중심원칙</t>
+    <t>벌칙중심원칙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8528,7 +8528,7 @@
   <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/data/construction.xlsx
+++ b/data/construction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flutter_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9EDAEF-9CCE-4351-9D46-C7BA93C1617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D870A-597B-43BD-972D-D9321DC4F5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="38616" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8152,7 +8152,7 @@
     <t>안전모 착용</t>
   </si>
   <si>
-    <t>벌칙중심원칙</t>
+    <t>벌칙중심원칙.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8528,7 +8528,7 @@
   <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="O15" sqref="O14:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/data/construction.xlsx
+++ b/data/construction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flutter_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D870A-597B-43BD-972D-D9321DC4F5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7FE1EC-58C0-4707-BEF0-2B7382187ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="38616" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8152,7 +8152,7 @@
     <t>안전모 착용</t>
   </si>
   <si>
-    <t>벌칙중심원칙.</t>
+    <t>벌칙중심원칙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8528,7 +8528,7 @@
   <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O14:O15"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/data/construction.xlsx
+++ b/data/construction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flutter_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7FE1EC-58C0-4707-BEF0-2B7382187ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D60FC1-372C-42E9-8D56-08DA6A4BA59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="38616" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8152,7 +8152,7 @@
     <t>안전모 착용</t>
   </si>
   <si>
-    <t>벌칙중심원칙</t>
+    <t>벌칙중심원칙.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
